--- a/yc1131_rng/修改参数测试.xlsx
+++ b/yc1131_rng/修改参数测试.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>0x87878787</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>翻转次数</t>
+  </si>
+  <si>
+    <t>00000</t>
   </si>
   <si>
     <t>1的个数</t>
@@ -677,12 +680,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1006,63 +1015,73 @@
     <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C4">
+        <v>63041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1070,31 +1089,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1102,42 +1121,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B3:B5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
